--- a/forecast_summary_B0D8WH9NG3.xlsx
+++ b/forecast_summary_B0D8WH9NG3.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>173.2960159947596</v>
       </c>
       <c r="D2" t="n">
-        <v>178.7954645784159</v>
+        <v>178.7470104864196</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>398.4006687706889</v>
       </c>
       <c r="D3" t="n">
-        <v>403.4749804800036</v>
+        <v>404.4305962057449</v>
       </c>
       <c r="E3" t="n">
         <v>78</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>801.9034369394811</v>
       </c>
       <c r="D4" t="n">
-        <v>807.3712784953333</v>
+        <v>807.8263519402944</v>
       </c>
       <c r="E4" t="n">
         <v>81</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>1241.908588321686</v>
       </c>
       <c r="D5" t="n">
-        <v>1247.209418989141</v>
+        <v>1247.485976352248</v>
       </c>
       <c r="E5" t="n">
         <v>69</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>1343.148261844491</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.406478464455</v>
+        <v>1348.63467405153</v>
       </c>
       <c r="E6" t="n">
         <v>61</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>822.4343576954113</v>
       </c>
       <c r="D7" t="n">
-        <v>828.0093970088342</v>
+        <v>827.9602700579604</v>
       </c>
       <c r="E7" t="n">
         <v>50</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-85.64732923131453</v>
       </c>
       <c r="D8" t="n">
-        <v>-79.53353851826252</v>
+        <v>-80.23717966194107</v>
       </c>
       <c r="E8" t="n">
         <v>51</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-658.7864948137745</v>
       </c>
       <c r="D9" t="n">
-        <v>-652.8053970996926</v>
+        <v>-652.8293095725006</v>
       </c>
       <c r="E9" t="n">
         <v>50</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-338.4041902742099</v>
       </c>
       <c r="D10" t="n">
-        <v>-332.6744663706614</v>
+        <v>-333.2221821881495</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>607.6603142342216</v>
       </c>
       <c r="D11" t="n">
-        <v>613.1187514337053</v>
+        <v>613.7563965725465</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>1229.037545319541</v>
       </c>
       <c r="D12" t="n">
-        <v>1234.499921276062</v>
+        <v>1235.111487086194</v>
       </c>
       <c r="E12" t="n">
         <v>52</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>855.5064312470814</v>
       </c>
       <c r="D13" t="n">
-        <v>860.7706428681549</v>
+        <v>861.2472955967712</v>
       </c>
       <c r="E13" t="n">
         <v>51</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-121.1457105527519</v>
       </c>
       <c r="D14" t="n">
-        <v>-115.6306326936757</v>
+        <v>-115.1898852536379</v>
       </c>
       <c r="E14" t="n">
         <v>50</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-603.6400815713355</v>
       </c>
       <c r="D15" t="n">
-        <v>-598.2000115918205</v>
+        <v>-598.4001680550697</v>
       </c>
       <c r="E15" t="n">
         <v>49</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-3.937738272270009</v>
       </c>
       <c r="D16" t="n">
-        <v>1.863715300352633</v>
+        <v>2.094013640734025</v>
       </c>
       <c r="E16" t="n">
         <v>50</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>1036.234732186723</v>
       </c>
       <c r="D17" t="n">
-        <v>1041.548345149667</v>
+        <v>1042.081016790614</v>
       </c>
       <c r="E17" t="n">
         <v>50</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>1322.794600851137</v>
       </c>
       <c r="D18" t="n">
-        <v>1328.374919086975</v>
+        <v>1328.692488466957</v>
       </c>
       <c r="E18" t="n">
         <v>49</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>490.1207688414286</v>
       </c>
       <c r="D19" t="n">
-        <v>495.437674075844</v>
+        <v>495.6926220979319</v>
       </c>
       <c r="E19" t="n">
         <v>49</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-514.4823047529366</v>
       </c>
       <c r="D20" t="n">
-        <v>-508.7691045484755</v>
+        <v>-508.505569897669</v>
       </c>
       <c r="E20" t="n">
         <v>54</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-483.7269949824727</v>
       </c>
       <c r="D21" t="n">
-        <v>-478.3368305140539</v>
+        <v>-478.2819519825633</v>
       </c>
       <c r="E21" t="n">
         <v>49</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B550 AORUS ELITE AX V3</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
